--- a/src/test/java/day12_webTables_excelOtomasyon/ulkeler.xlsx
+++ b/src/test/java/day12_webTables_excelOtomasyon/ulkeler.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
     <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2157,7 +2157,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2167,7 +2167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -4858,14 +4858,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A4:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="D7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="E9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="F12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/java/day12_webTables_excelOtomasyon/ulkeler.xlsx
+++ b/src/test/java/day12_webTables_excelOtomasyon/ulkeler.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="577">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1739,12 +1739,25 @@
   </si>
   <si>
     <t>Zimbabve</t>
+  </si>
+  <si>
+    <t>Nufus</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>54000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -2157,7 +2170,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2165,7 +2178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
@@ -2173,7 +2186,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="25.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" thickBot="1">
@@ -2189,6 +2202,9 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s" s="0">
+        <v>573</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
@@ -2203,6 +2219,9 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s" s="0">
+        <v>574</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1">
       <c r="A3" s="4" t="s">
@@ -2315,6 +2334,9 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="E10" t="s" s="0">
+        <v>575</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1">
       <c r="A11" s="4" t="s">
@@ -2384,6 +2406,9 @@
       </c>
       <c r="D15" s="7" t="s">
         <v>49</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>576</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1">
@@ -4867,55 +4892,55 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="4" spans="1:6">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="D7">
+      <c r="D7" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="E9">
+      <c r="E9" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="F10">
+      <c r="F10" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="F12">
+      <c r="F12" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14">
+      <c r="A14" s="0">
         <v>5</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>7</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="C16">
+      <c r="C16" s="0">
         <v>7</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0">
         <v>7</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>7</v>
       </c>
     </row>
